--- a/ResultadoEleicoesDistritos/GUARDA_SABUGAL.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_SABUGAL.xlsx
@@ -597,64 +597,64 @@
         <v>3536</v>
       </c>
       <c r="H2" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="I2" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="J2" t="n">
-        <v>1387</v>
+        <v>1438</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="T2" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" t="n">
-        <v>2312</v>
+        <v>2254</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2315</v>
+        <v>2280</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
